--- a/most_active_stock_data.xlsx
+++ b/most_active_stock_data.xlsx
@@ -28,7 +28,7 @@
     <t>change</t>
   </si>
   <si>
-    <t>% change</t>
+    <t>percent_change</t>
   </si>
   <si>
     <t>volume</t>
